--- a/majorityBaseline.xlsx
+++ b/majorityBaseline.xlsx
@@ -433,6 +433,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,11 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -762,54 +762,54 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="13"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
@@ -1767,66 +1767,66 @@
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="12">
         <v>19</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="13">
         <f>1-B16/B17</f>
         <v>0.70769230769230762</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="14">
         <v>28</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="13">
         <f>1-D16/D17</f>
         <v>0.71717171717171713</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="12">
         <v>29</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="13">
         <f>1-F16/F17</f>
         <v>0.70408163265306123</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="14">
         <v>27</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="13">
         <f>1-H16/H17</f>
         <v>0.74528301886792447</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="12">
         <v>28</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="13">
         <f>1-J16/J17</f>
         <v>0.72277227722772275</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="14">
         <v>23</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="13">
         <f>1-L16/L17</f>
         <v>0.71951219512195119</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="12">
         <v>18</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="13">
         <f>1-N16/N17</f>
         <v>0.76</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="14">
         <v>25</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="13">
         <f>1-P16/P17</f>
         <v>0.73684210526315796</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="14">
         <v>27</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="13">
         <f>1-R16/R17</f>
         <v>0.74528301886792447</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="B17" s="10">
         <v>65</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="15">
         <f>AVERAGE(C2:C16)</f>
         <v>0.89435897435897449</v>
       </c>
@@ -1848,11 +1848,11 @@
         <f>AVERAGE(E2:E16)</f>
         <v>0.88215488215488214</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="16">
         <f>85+13</f>
         <v>98</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="15">
         <f>AVERAGE(G2:G16)</f>
         <v>0.87551020408163238</v>
       </c>
@@ -1864,11 +1864,11 @@
         <f>AVERAGE(I2:I16)</f>
         <v>0.88238993710691838</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="16">
         <f>90+11</f>
         <v>101</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="15">
         <f>AVERAGE(K2:K16)</f>
         <v>0.87854785478547859</v>
       </c>
@@ -1880,11 +1880,11 @@
         <f>AVERAGE(M2:M16)</f>
         <v>0.88292682926829258</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="16">
         <f>13+62</f>
         <v>75</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="15">
         <f>AVERAGE(O2:O16)</f>
         <v>0.88533333333333342</v>
       </c>
@@ -1896,7 +1896,7 @@
         <f>AVERAGE(Q2:Q16)</f>
         <v>0.87438596491228082</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="16">
         <f>88+18</f>
         <v>106</v>
       </c>

--- a/majorityBaseline.xlsx
+++ b/majorityBaseline.xlsx
@@ -120,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -148,7 +148,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -163,7 +163,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -178,10 +178,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -193,23 +193,60 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -222,6 +259,32 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -229,6 +292,99 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -241,227 +397,131 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -756,1181 +816,1738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="2" max="28" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="21" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="19" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="17" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="18"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="12"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:28">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="17">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
-        <f>1-B2/B17</f>
+      <c r="C2" s="18">
+        <f>B2/B17</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D2" s="22">
+        <f>1-C2</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="17">
         <v>16</v>
       </c>
-      <c r="E2" s="6">
-        <f>1-D2/D17</f>
+      <c r="F2" s="18">
+        <f>E2/E17</f>
+        <v>0.16161616161616163</v>
+      </c>
+      <c r="G2" s="19">
+        <f>1-F2</f>
         <v>0.83838383838383834</v>
       </c>
-      <c r="F2" s="9">
+      <c r="H2" s="24">
         <v>13</v>
       </c>
-      <c r="G2" s="6">
-        <f>1-F2/F17</f>
+      <c r="I2" s="18">
+        <f>H2/H17</f>
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="J2" s="22">
+        <f>1-I2</f>
         <v>0.86734693877551017</v>
       </c>
-      <c r="H2" s="5">
+      <c r="K2" s="17">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <f>K2/K17</f>
+        <v>9.433962264150943E-3</v>
+      </c>
+      <c r="M2" s="19">
+        <f>1-L2</f>
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="N2" s="17">
+        <v>11</v>
+      </c>
+      <c r="O2" s="18">
+        <f>N2/N17</f>
+        <v>0.10891089108910891</v>
+      </c>
+      <c r="P2" s="19">
+        <f>1-O2</f>
+        <v>0.8910891089108911</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>13</v>
+      </c>
+      <c r="R2" s="18">
+        <f>Q2/Q17</f>
+        <v>0.15853658536585366</v>
+      </c>
+      <c r="S2" s="19">
+        <f>1-R2</f>
+        <v>0.84146341463414631</v>
+      </c>
+      <c r="T2" s="24">
+        <v>13</v>
+      </c>
+      <c r="U2" s="18">
+        <f>T2/T17</f>
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="V2" s="19">
+        <f>1-U2</f>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="W2" s="24">
+        <v>16</v>
+      </c>
+      <c r="X2" s="18">
+        <f>W2/W17</f>
+        <v>0.16842105263157894</v>
+      </c>
+      <c r="Y2" s="19">
+        <f>1-X2</f>
+        <v>0.83157894736842108</v>
+      </c>
+      <c r="Z2" s="24">
         <v>18</v>
       </c>
-      <c r="I2" s="6">
-        <f>1-H2/H17</f>
+      <c r="AA2" s="18">
+        <f>Z2/Z17</f>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="AB2" s="19">
+        <f>1-AA2</f>
         <v>0.83018867924528306</v>
       </c>
-      <c r="J2" s="9">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6">
-        <f>1-J2/J17</f>
-        <v>0.8910891089108911</v>
-      </c>
-      <c r="L2" s="5">
-        <v>13</v>
-      </c>
-      <c r="M2" s="6">
-        <f>1-L2/L17</f>
-        <v>0.84146341463414631</v>
-      </c>
-      <c r="N2" s="9">
-        <v>13</v>
-      </c>
-      <c r="O2" s="6">
-        <f>1-N2/N17</f>
-        <v>0.82666666666666666</v>
-      </c>
-      <c r="P2" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="6">
-        <f>1-P2/P17</f>
-        <v>0.83157894736842108</v>
-      </c>
-      <c r="R2" s="5">
-        <v>18</v>
-      </c>
-      <c r="S2" s="6">
-        <f>1-R2/R17</f>
-        <v>0.83018867924528306</v>
-      </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:28">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <f>1-B3/B17</f>
+      <c r="C3" s="14">
+        <f>B3/B17</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D3" s="23">
+        <f t="shared" ref="D3:D16" si="0">1-C3</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <f>1-D3/D17</f>
+      <c r="F3" s="14">
+        <f>E3/E17</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G16" si="1">1-F3</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
-        <f>1-F3/F17</f>
+      <c r="I3" s="14">
+        <f>H3/H17</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J3" s="23">
+        <f t="shared" ref="J3:J16" si="2">1-I3</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="2">
         <v>12</v>
       </c>
-      <c r="I3" s="3">
-        <f>1-H3/H17</f>
+      <c r="L3" s="14">
+        <f>K3/K17</f>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M16" si="3">1-L3</f>
         <v>0.8867924528301887</v>
-      </c>
-      <c r="J3" s="2">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3">
-        <f>1-J3/J17</f>
-        <v>0.93069306930693063</v>
-      </c>
-      <c r="L3" s="1">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3">
-        <f>1-L3/L17</f>
-        <v>0.90243902439024393</v>
       </c>
       <c r="N3" s="2">
         <v>7</v>
       </c>
-      <c r="O3" s="3">
-        <f>1-N3/N17</f>
+      <c r="O3" s="14">
+        <f>N3/N17</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P16" si="4">1-O3</f>
+        <v>0.93069306930693063</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>8</v>
+      </c>
+      <c r="R3" s="14">
+        <f>Q3/Q17</f>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S16" si="5">1-R3</f>
+        <v>0.90243902439024393</v>
+      </c>
+      <c r="T3" s="1">
+        <v>7</v>
+      </c>
+      <c r="U3" s="14">
+        <f>T3/T17</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:V16" si="6">1-U3</f>
         <v>0.90666666666666662</v>
       </c>
-      <c r="P3" s="1">
+      <c r="W3" s="1">
         <v>8</v>
       </c>
-      <c r="Q3" s="3">
-        <f>1-P3/P17</f>
+      <c r="X3" s="14">
+        <f>W3/W17</f>
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y16" si="7">1-X3</f>
         <v>0.91578947368421049</v>
       </c>
-      <c r="R3" s="1">
+      <c r="Z3" s="1">
         <v>12</v>
       </c>
-      <c r="S3" s="3">
-        <f>1-R3/R17</f>
+      <c r="AA3" s="14">
+        <f>Z3/Z17</f>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" ref="AB3:AB16" si="8">1-AA3</f>
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:28">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
-        <f>1-B4/B17</f>
+      <c r="C4" s="14">
+        <f>B4/B17</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D4" s="23">
+        <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
-        <f>1-D4/D17</f>
+      <c r="F4" s="14">
+        <f>E4/E17</f>
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
         <v>0.9494949494949495</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
-        <f>1-F4/F17</f>
+      <c r="I4" s="14">
+        <f>H4/H17</f>
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="3">
-        <f>1-H4/H17</f>
+      <c r="L4" s="14">
+        <f>K4/K17</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="3"/>
         <v>0.94339622641509435</v>
       </c>
-      <c r="J4" s="2">
+      <c r="N4" s="2">
         <v>8</v>
       </c>
-      <c r="K4" s="3">
-        <f>1-J4/J17</f>
+      <c r="O4" s="14">
+        <f>N4/N17</f>
+        <v>7.9207920792079209E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="4"/>
         <v>0.92079207920792083</v>
       </c>
-      <c r="L4" s="1">
+      <c r="Q4" s="1">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
-        <f>1-L4/L17</f>
+      <c r="R4" s="14">
+        <f>Q4/Q17</f>
+        <v>6.097560975609756E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="5"/>
         <v>0.93902439024390238</v>
       </c>
-      <c r="N4" s="2">
+      <c r="T4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="3">
-        <f>1-N4/N17</f>
+      <c r="U4" s="14">
+        <f>T4/T17</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="6"/>
         <v>0.97333333333333338</v>
       </c>
-      <c r="P4" s="1">
+      <c r="W4" s="1">
         <v>6</v>
       </c>
-      <c r="Q4" s="3">
-        <f>1-P4/P17</f>
+      <c r="X4" s="14">
+        <f>W4/W17</f>
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="7"/>
         <v>0.93684210526315792</v>
       </c>
-      <c r="R4" s="1">
+      <c r="Z4" s="1">
         <v>6</v>
       </c>
-      <c r="S4" s="3">
-        <f>1-R4/R17</f>
+      <c r="AA4" s="14">
+        <f>Z4/Z17</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="8"/>
         <v>0.94339622641509435</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:28">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <f>1-B5/B17</f>
+      <c r="C5" s="14">
+        <f>B5/B17</f>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" si="0"/>
         <v>0.89230769230769225</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="2">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
-        <f>1-D5/D17</f>
+      <c r="F5" s="14">
+        <f>E5/E17</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="1">
         <v>15</v>
       </c>
-      <c r="G5" s="3">
-        <f>1-F5/F17</f>
+      <c r="I5" s="14">
+        <f>H5/H17</f>
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="J5" s="23">
+        <f t="shared" si="2"/>
         <v>0.84693877551020402</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="2">
         <v>11</v>
       </c>
-      <c r="I5" s="3">
-        <f>1-H5/H17</f>
+      <c r="L5" s="14">
+        <f>K5/K17</f>
+        <v>0.10377358490566038</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
         <v>0.89622641509433965</v>
       </c>
-      <c r="J5" s="2">
+      <c r="N5" s="2">
         <v>11</v>
       </c>
-      <c r="K5" s="3">
-        <f>1-J5/J17</f>
+      <c r="O5" s="14">
+        <f>N5/N17</f>
+        <v>0.10891089108910891</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
         <v>0.8910891089108911</v>
       </c>
-      <c r="L5" s="1">
+      <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="M5" s="3">
-        <f>1-L5/L17</f>
+      <c r="R5" s="14">
+        <f>Q5/Q17</f>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="5"/>
         <v>0.87804878048780488</v>
       </c>
-      <c r="N5" s="2">
+      <c r="T5" s="1">
         <v>7</v>
       </c>
-      <c r="O5" s="3">
-        <f>1-N5/N17</f>
+      <c r="U5" s="14">
+        <f>T5/T17</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="6"/>
         <v>0.90666666666666662</v>
       </c>
-      <c r="P5" s="1">
+      <c r="W5" s="1">
         <v>11</v>
       </c>
-      <c r="Q5" s="3">
-        <f>1-P5/P17</f>
+      <c r="X5" s="14">
+        <f>W5/W17</f>
+        <v>0.11578947368421053</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="7"/>
         <v>0.88421052631578945</v>
       </c>
-      <c r="R5" s="1">
+      <c r="Z5" s="1">
         <v>11</v>
       </c>
-      <c r="S5" s="3">
-        <f>1-R5/R17</f>
+      <c r="AA5" s="14">
+        <f>Z5/Z17</f>
+        <v>0.10377358490566038</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="8"/>
         <v>0.89622641509433965</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:28">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <f>1-B6/B17</f>
+      <c r="C6" s="14">
+        <f>B6/B17</f>
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="0"/>
         <v>0.96923076923076923</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
-        <f>1-D6/D17</f>
+      <c r="F6" s="14">
+        <f>E6/E17</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
         <v>0.95959595959595956</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
-        <f>1-F6/F17</f>
+      <c r="I6" s="14">
+        <f>H6/H17</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="3">
-        <f>1-H6/H17</f>
+      <c r="L6" s="14">
+        <f>K6/K17</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
         <v>0.96226415094339623</v>
       </c>
-      <c r="J6" s="2">
+      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="3">
-        <f>1-J6/J17</f>
+      <c r="O6" s="14">
+        <f>N6/N17</f>
+        <v>2.9702970297029702E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
         <v>0.97029702970297027</v>
       </c>
-      <c r="L6" s="1">
+      <c r="Q6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="3">
-        <f>1-L6/L17</f>
+      <c r="R6" s="14">
+        <f>Q6/Q17</f>
+        <v>6.097560975609756E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="5"/>
         <v>0.93902439024390238</v>
       </c>
-      <c r="N6" s="2">
+      <c r="T6" s="1">
         <v>7</v>
       </c>
-      <c r="O6" s="3">
-        <f>1-N6/N17</f>
+      <c r="U6" s="14">
+        <f>T6/T17</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="6"/>
         <v>0.90666666666666662</v>
       </c>
-      <c r="P6" s="1">
+      <c r="W6" s="1">
         <v>4</v>
       </c>
-      <c r="Q6" s="3">
-        <f>1-P6/P17</f>
+      <c r="X6" s="14">
+        <f>W6/W17</f>
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="7"/>
         <v>0.95789473684210524</v>
       </c>
-      <c r="R6" s="1">
+      <c r="Z6" s="1">
         <v>4</v>
       </c>
-      <c r="S6" s="3">
-        <f>1-R6/R17</f>
+      <c r="AA6" s="14">
+        <f>Z6/Z17</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="8"/>
         <v>0.96226415094339623</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:28">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
-        <f>1-B7/B17</f>
+      <c r="C7" s="14">
+        <f>B7/B17</f>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="0"/>
         <v>0.89230769230769225</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
-        <f>1-D7/D17</f>
+      <c r="F7" s="14">
+        <f>E7/E17</f>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
         <v>0.84848484848484851</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="1">
         <v>16</v>
       </c>
-      <c r="G7" s="3">
-        <f>1-F7/F17</f>
+      <c r="I7" s="14">
+        <f>H7/H17</f>
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="J7" s="23">
+        <f t="shared" si="2"/>
         <v>0.83673469387755106</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="2">
         <v>17</v>
       </c>
-      <c r="I7" s="3">
-        <f>1-H7/H17</f>
+      <c r="L7" s="14">
+        <f>K7/K17</f>
+        <v>0.16037735849056603</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
         <v>0.839622641509434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>17</v>
       </c>
-      <c r="K7" s="3">
-        <f>1-J7/J17</f>
+      <c r="O7" s="14">
+        <f>N7/N17</f>
+        <v>0.16831683168316833</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
         <v>0.83168316831683164</v>
       </c>
-      <c r="L7" s="1">
+      <c r="Q7" s="1">
         <v>11</v>
       </c>
-      <c r="M7" s="3">
-        <f>1-L7/L17</f>
+      <c r="R7" s="14">
+        <f>Q7/Q17</f>
+        <v>0.13414634146341464</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="5"/>
         <v>0.86585365853658536</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T7" s="1">
         <v>10</v>
       </c>
-      <c r="O7" s="3">
-        <f>1-N7/N17</f>
+      <c r="U7" s="14">
+        <f>T7/T17</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="P7" s="1">
+      <c r="W7" s="1">
         <v>18</v>
       </c>
-      <c r="Q7" s="3">
-        <f>1-P7/P17</f>
+      <c r="X7" s="14">
+        <f>W7/W17</f>
+        <v>0.18947368421052632</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="7"/>
         <v>0.81052631578947365</v>
       </c>
-      <c r="R7" s="1">
+      <c r="Z7" s="1">
         <v>17</v>
       </c>
-      <c r="S7" s="3">
-        <f>1-R7/R17</f>
+      <c r="AA7" s="14">
+        <f>Z7/Z17</f>
+        <v>0.16037735849056603</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="8"/>
         <v>0.839622641509434</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:28">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
-        <f>1-B8/B17</f>
+      <c r="C8" s="14">
+        <f>B8/B17</f>
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="0"/>
         <v>0.86153846153846159</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="2">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
-        <f>1-D8/D17</f>
+      <c r="F8" s="14">
+        <f>E8/E17</f>
+        <v>0.13131313131313133</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
         <v>0.86868686868686873</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="1">
         <v>11</v>
       </c>
-      <c r="G8" s="3">
-        <f>1-F8/F17</f>
+      <c r="I8" s="14">
+        <f>H8/H17</f>
+        <v>0.11224489795918367</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" si="2"/>
         <v>0.88775510204081631</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="2">
         <v>14</v>
       </c>
-      <c r="I8" s="3">
-        <f>1-H8/H17</f>
+      <c r="L8" s="14">
+        <f>K8/K17</f>
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
         <v>0.86792452830188682</v>
-      </c>
-      <c r="J8" s="2">
-        <v>12</v>
-      </c>
-      <c r="K8" s="3">
-        <f>1-J8/J17</f>
-        <v>0.88118811881188119</v>
-      </c>
-      <c r="L8" s="1">
-        <v>6</v>
-      </c>
-      <c r="M8" s="3">
-        <f>1-L8/L17</f>
-        <v>0.92682926829268297</v>
       </c>
       <c r="N8" s="2">
         <v>12</v>
       </c>
-      <c r="O8" s="3">
-        <f>1-N8/N17</f>
+      <c r="O8" s="14">
+        <f>N8/N17</f>
+        <v>0.11881188118811881</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.88118811881188119</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="14">
+        <f>Q8/Q17</f>
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="5"/>
+        <v>0.92682926829268297</v>
+      </c>
+      <c r="T8" s="1">
+        <v>12</v>
+      </c>
+      <c r="U8" s="14">
+        <f>T8/T17</f>
+        <v>0.16</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="6"/>
         <v>0.84</v>
       </c>
-      <c r="P8" s="1">
+      <c r="W8" s="1">
         <v>11</v>
       </c>
-      <c r="Q8" s="3">
-        <f>1-P8/P17</f>
+      <c r="X8" s="14">
+        <f>W8/W17</f>
+        <v>0.11578947368421053</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="7"/>
         <v>0.88421052631578945</v>
       </c>
-      <c r="R8" s="1">
+      <c r="Z8" s="1">
         <v>14</v>
       </c>
-      <c r="S8" s="3">
-        <f>1-R8/R17</f>
+      <c r="AA8" s="14">
+        <f>Z8/Z17</f>
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="8"/>
         <v>0.86792452830188682</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:28">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <f>1-B9/B17</f>
+      <c r="C9" s="14">
+        <f>B9/B17</f>
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="0"/>
         <v>0.96923076923076923</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <f>1-D9/D17</f>
+      <c r="F9" s="14">
+        <f>E9/E17</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
         <v>0.95959595959595956</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="3">
-        <f>1-F9/F17</f>
+      <c r="I9" s="14">
+        <f>H9/H17</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="3">
-        <f>1-H9/H17</f>
+      <c r="L9" s="14">
+        <f>K9/K17</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
         <v>0.93396226415094341</v>
       </c>
-      <c r="J9" s="2">
+      <c r="N9" s="2">
         <v>6</v>
       </c>
-      <c r="K9" s="3">
-        <f>1-J9/J17</f>
+      <c r="O9" s="14">
+        <f>N9/N17</f>
+        <v>5.9405940594059403E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
         <v>0.94059405940594054</v>
       </c>
-      <c r="L9" s="1">
+      <c r="Q9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <f>1-L9/L17</f>
+      <c r="R9" s="14">
+        <f>Q9/Q17</f>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="5"/>
         <v>0.95121951219512191</v>
       </c>
-      <c r="N9" s="2">
+      <c r="T9" s="1">
         <v>2</v>
       </c>
-      <c r="O9" s="3">
-        <f>1-N9/N17</f>
+      <c r="U9" s="14">
+        <f>T9/T17</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="6"/>
         <v>0.97333333333333338</v>
       </c>
-      <c r="P9" s="1">
+      <c r="W9" s="1">
         <v>6</v>
       </c>
-      <c r="Q9" s="3">
-        <f>1-P9/P17</f>
+      <c r="X9" s="14">
+        <f>W9/W17</f>
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="7"/>
         <v>0.93684210526315792</v>
       </c>
-      <c r="R9" s="1">
+      <c r="Z9" s="1">
         <v>7</v>
       </c>
-      <c r="S9" s="3">
-        <f>1-R9/R17</f>
+      <c r="AA9" s="14">
+        <f>Z9/Z17</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="8"/>
         <v>0.93396226415094341</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:28">
+      <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <f>1-B10/B17</f>
+      <c r="C10" s="14">
+        <f>B10/B17</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
         <v>0.93846153846153846</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="3">
-        <f>1-D10/D17</f>
+      <c r="F10" s="14">
+        <f>E10/E17</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
         <v>0.93939393939393945</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
-        <f>1-F10/F17</f>
+      <c r="I10" s="14">
+        <f>H10/H17</f>
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="J10" s="23">
+        <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="2">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <f>1-H10/H17</f>
+      <c r="L10" s="14">
+        <f>K10/K17</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
         <v>0.96226415094339623</v>
-      </c>
-      <c r="J10" s="2">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
-        <f>1-J10/J17</f>
-        <v>0.92079207920792083</v>
-      </c>
-      <c r="L10" s="1">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3">
-        <f>1-L10/L17</f>
-        <v>0.91463414634146345</v>
       </c>
       <c r="N10" s="2">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
-        <f>1-N10/N17</f>
+      <c r="O10" s="14">
+        <f>N10/N17</f>
+        <v>7.9207920792079209E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.92079207920792083</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" s="14">
+        <f>Q10/Q17</f>
+        <v>8.5365853658536592E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="5"/>
+        <v>0.91463414634146345</v>
+      </c>
+      <c r="T10" s="1">
+        <v>8</v>
+      </c>
+      <c r="U10" s="14">
+        <f>T10/T17</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="6"/>
         <v>0.89333333333333331</v>
       </c>
-      <c r="P10" s="1">
+      <c r="W10" s="1">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <f>1-P10/P17</f>
+      <c r="X10" s="14">
+        <f>W10/W17</f>
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="7"/>
         <v>0.95789473684210524</v>
       </c>
-      <c r="R10" s="1">
+      <c r="Z10" s="1">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <f>1-R10/R17</f>
+      <c r="AA10" s="14">
+        <f>Z10/Z17</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="8"/>
         <v>0.96226415094339623</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:28">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <f>1-B11/B17</f>
+      <c r="C11" s="14">
+        <f>B11/B17</f>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="0"/>
         <v>0.89230769230769225</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="3">
-        <f>1-D11/D17</f>
+      <c r="F11" s="14">
+        <f>E11/E17</f>
+        <v>8.0808080808080815E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
         <v>0.91919191919191923</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="3">
-        <f>1-F11/F17</f>
+      <c r="I11" s="14">
+        <f>H11/H17</f>
+        <v>9.1836734693877556E-2</v>
+      </c>
+      <c r="J11" s="23">
+        <f t="shared" si="2"/>
         <v>0.90816326530612246</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="2">
         <v>7</v>
       </c>
-      <c r="I11" s="3">
-        <f>1-H11/H17</f>
+      <c r="L11" s="14">
+        <f>K11/K17</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="3"/>
         <v>0.93396226415094341</v>
       </c>
-      <c r="J11" s="2">
+      <c r="N11" s="2">
         <v>7</v>
       </c>
-      <c r="K11" s="3">
-        <f>1-J11/J17</f>
+      <c r="O11" s="14">
+        <f>N11/N17</f>
+        <v>6.9306930693069313E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
         <v>0.93069306930693063</v>
       </c>
-      <c r="L11" s="1">
+      <c r="Q11" s="1">
         <v>9</v>
       </c>
-      <c r="M11" s="3">
-        <f>1-L11/L17</f>
+      <c r="R11" s="14">
+        <f>Q11/Q17</f>
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="5"/>
         <v>0.8902439024390244</v>
       </c>
-      <c r="N11" s="2">
+      <c r="T11" s="1">
         <v>9</v>
       </c>
-      <c r="O11" s="3">
-        <f>1-N11/N17</f>
+      <c r="U11" s="14">
+        <f>T11/T17</f>
+        <v>0.12</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="6"/>
         <v>0.88</v>
       </c>
-      <c r="P11" s="1">
+      <c r="W11" s="1">
         <v>10</v>
       </c>
-      <c r="Q11" s="3">
-        <f>1-P11/P17</f>
+      <c r="X11" s="14">
+        <f>W11/W17</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="7"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="R11" s="1">
+      <c r="Z11" s="1">
         <v>7</v>
       </c>
-      <c r="S11" s="3">
-        <f>1-R11/R17</f>
+      <c r="AA11" s="14">
+        <f>Z11/Z17</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" si="8"/>
         <v>0.93396226415094341</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:28">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
-        <f>1-B12/B17</f>
+      <c r="C12" s="14">
+        <f>B12/B17</f>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
         <v>0.87692307692307692</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="2">
         <v>22</v>
       </c>
-      <c r="E12" s="3">
-        <f>1-D12/D17</f>
+      <c r="F12" s="14">
+        <f>E12/E17</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="1">
         <v>18</v>
       </c>
-      <c r="G12" s="3">
-        <f>1-F12/F17</f>
+      <c r="I12" s="14">
+        <f>H12/H17</f>
+        <v>0.18367346938775511</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="2"/>
         <v>0.81632653061224492</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="2">
         <v>22</v>
       </c>
-      <c r="I12" s="3">
-        <f>1-H12/H17</f>
+      <c r="L12" s="14">
+        <f>K12/K17</f>
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="3"/>
         <v>0.79245283018867929</v>
       </c>
-      <c r="J12" s="2">
+      <c r="N12" s="2">
         <v>22</v>
       </c>
-      <c r="K12" s="3">
-        <f>1-J12/J17</f>
+      <c r="O12" s="14">
+        <f>N12/N17</f>
+        <v>0.21782178217821782</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
         <v>0.78217821782178221</v>
       </c>
-      <c r="L12" s="1">
+      <c r="Q12" s="1">
         <v>14</v>
       </c>
-      <c r="M12" s="3">
-        <f>1-L12/L17</f>
+      <c r="R12" s="14">
+        <f>Q12/Q17</f>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="5"/>
         <v>0.82926829268292679</v>
       </c>
-      <c r="N12" s="2">
+      <c r="T12" s="1">
         <v>14</v>
       </c>
-      <c r="O12" s="3">
-        <f>1-N12/N17</f>
+      <c r="U12" s="14">
+        <f>T12/T17</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="6"/>
         <v>0.81333333333333335</v>
       </c>
-      <c r="P12" s="1">
+      <c r="W12" s="1">
         <v>22</v>
       </c>
-      <c r="Q12" s="3">
-        <f>1-P12/P17</f>
+      <c r="X12" s="14">
+        <f>W12/W17</f>
+        <v>0.23157894736842105</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="7"/>
         <v>0.76842105263157889</v>
       </c>
-      <c r="R12" s="1">
+      <c r="Z12" s="1">
         <v>22</v>
       </c>
-      <c r="S12" s="3">
-        <f>1-R12/R17</f>
+      <c r="AA12" s="14">
+        <f>Z12/Z17</f>
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="AB12" s="3">
+        <f t="shared" si="8"/>
         <v>0.79245283018867929</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:28">
+      <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
-        <f>1-B13/B17</f>
+      <c r="C13" s="14">
+        <f>B13/B17</f>
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
         <v>0.90769230769230769</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="3">
-        <f>1-D13/D17</f>
+      <c r="F13" s="14">
+        <f>E13/E17</f>
+        <v>0.10101010101010101</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
         <v>0.89898989898989901</v>
-      </c>
-      <c r="F13" s="2">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3">
-        <f>1-F13/F17</f>
-        <v>0.87755102040816324</v>
       </c>
       <c r="H13" s="1">
         <v>12</v>
       </c>
-      <c r="I13" s="3">
-        <f>1-H13/H17</f>
+      <c r="I13" s="14">
+        <f>H13/H17</f>
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="2"/>
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="K13" s="2">
+        <v>12</v>
+      </c>
+      <c r="L13" s="14">
+        <f>K13/K17</f>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
         <v>0.8867924528301887</v>
       </c>
-      <c r="J13" s="2">
+      <c r="N13" s="2">
         <v>12</v>
       </c>
-      <c r="K13" s="3">
-        <f>1-J13/J17</f>
+      <c r="O13" s="14">
+        <f>N13/N17</f>
+        <v>0.11881188118811881</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
         <v>0.88118811881188119</v>
       </c>
-      <c r="L13" s="1">
+      <c r="Q13" s="1">
         <v>7</v>
       </c>
-      <c r="M13" s="3">
-        <f>1-L13/L17</f>
+      <c r="R13" s="14">
+        <f>Q13/Q17</f>
+        <v>8.5365853658536592E-2</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="5"/>
         <v>0.91463414634146345</v>
       </c>
-      <c r="N13" s="2">
+      <c r="T13" s="1">
         <v>5</v>
       </c>
-      <c r="O13" s="3">
-        <f>1-N13/N17</f>
+      <c r="U13" s="14">
+        <f>T13/T17</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="6"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="P13" s="1">
+      <c r="W13" s="1">
         <v>10</v>
       </c>
-      <c r="Q13" s="3">
-        <f>1-P13/P17</f>
+      <c r="X13" s="14">
+        <f>W13/W17</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="7"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="R13" s="1">
+      <c r="Z13" s="1">
         <v>12</v>
       </c>
-      <c r="S13" s="3">
-        <f>1-R13/R17</f>
+      <c r="AA13" s="14">
+        <f>Z13/Z17</f>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="8"/>
         <v>0.8867924528301887</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:28">
+      <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <f>1-B14/B17</f>
+      <c r="C14" s="14">
+        <f>B14/B17</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="0"/>
         <v>0.98461538461538467</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <f>1-D14/D17</f>
+      <c r="F14" s="14">
+        <f>E14/E17</f>
+        <v>8.0808080808080815E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
         <v>0.91919191919191923</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="3">
-        <f>1-F14/F17</f>
+      <c r="I14" s="14">
+        <f>H14/H17</f>
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="2">
         <v>7</v>
       </c>
-      <c r="I14" s="3">
-        <f>1-H14/H17</f>
+      <c r="L14" s="14">
+        <f>K14/K17</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
         <v>0.93396226415094341</v>
       </c>
-      <c r="J14" s="2">
+      <c r="N14" s="2">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <f>1-J14/J17</f>
+      <c r="O14" s="14">
+        <f>N14/N17</f>
+        <v>7.9207920792079209E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
         <v>0.92079207920792083</v>
       </c>
-      <c r="L14" s="1">
+      <c r="Q14" s="1">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <f>1-L14/L17</f>
+      <c r="R14" s="14">
+        <f>Q14/Q17</f>
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="5"/>
         <v>0.96341463414634143</v>
       </c>
-      <c r="N14" s="2">
+      <c r="T14" s="1">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <f>1-N14/N17</f>
+      <c r="U14" s="14">
+        <f>T14/T17</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="6"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="P14" s="1">
+      <c r="W14" s="1">
         <v>6</v>
       </c>
-      <c r="Q14" s="3">
-        <f>1-P14/P17</f>
+      <c r="X14" s="14">
+        <f>W14/W17</f>
+        <v>6.3157894736842107E-2</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="7"/>
         <v>0.93684210526315792</v>
       </c>
-      <c r="R14" s="1">
+      <c r="Z14" s="1">
         <v>7</v>
       </c>
-      <c r="S14" s="3">
-        <f>1-R14/R17</f>
+      <c r="AA14" s="14">
+        <f>Z14/Z17</f>
+        <v>6.6037735849056603E-2</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="8"/>
         <v>0.93396226415094341</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:28">
+      <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
-        <f>1-B15/B17</f>
+      <c r="C15" s="14">
+        <f>B15/B17</f>
+        <v>0.16923076923076924</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" si="0"/>
         <v>0.8307692307692307</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="2">
         <v>16</v>
       </c>
-      <c r="E15" s="3">
-        <f>1-D15/D17</f>
+      <c r="F15" s="14">
+        <f>E15/E17</f>
+        <v>0.16161616161616163</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
         <v>0.83838383838383834</v>
-      </c>
-      <c r="F15" s="2">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3">
-        <f>1-F15/F17</f>
-        <v>0.80612244897959184</v>
       </c>
       <c r="H15" s="1">
         <v>19</v>
       </c>
-      <c r="I15" s="3">
-        <f>1-H15/H17</f>
+      <c r="I15" s="14">
+        <f>H15/H17</f>
+        <v>0.19387755102040816</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="2"/>
+        <v>0.80612244897959184</v>
+      </c>
+      <c r="K15" s="2">
+        <v>19</v>
+      </c>
+      <c r="L15" s="14">
+        <f>K15/K17</f>
+        <v>0.17924528301886791</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="3"/>
         <v>0.82075471698113212</v>
       </c>
-      <c r="J15" s="2">
+      <c r="N15" s="2">
         <v>24</v>
       </c>
-      <c r="K15" s="3">
-        <f>1-J15/J17</f>
+      <c r="O15" s="14">
+        <f>N15/N17</f>
+        <v>0.23762376237623761</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
         <v>0.76237623762376239</v>
       </c>
-      <c r="L15" s="1">
+      <c r="Q15" s="1">
         <v>19</v>
       </c>
-      <c r="M15" s="3">
-        <f>1-L15/L17</f>
+      <c r="R15" s="14">
+        <f>Q15/Q17</f>
+        <v>0.23170731707317074</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="5"/>
         <v>0.76829268292682928</v>
       </c>
-      <c r="N15" s="2">
+      <c r="T15" s="1">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <f>1-N15/N17</f>
+      <c r="U15" s="14">
+        <f>T15/T17</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="P15" s="1">
+      <c r="W15" s="1">
         <v>22</v>
       </c>
-      <c r="Q15" s="3">
-        <f>1-P15/P17</f>
+      <c r="X15" s="14">
+        <f>W15/W17</f>
+        <v>0.23157894736842105</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="7"/>
         <v>0.76842105263157889</v>
       </c>
-      <c r="R15" s="1">
+      <c r="Z15" s="1">
         <v>19</v>
       </c>
-      <c r="S15" s="3">
-        <f>1-R15/R17</f>
+      <c r="AA15" s="14">
+        <f>Z15/Z17</f>
+        <v>0.17924528301886791</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" si="8"/>
         <v>0.82075471698113212</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>19</v>
       </c>
-      <c r="C16" s="13">
-        <f>1-B16/B17</f>
+      <c r="C16" s="30">
+        <f>B16/B17</f>
+        <v>0.29230769230769232</v>
+      </c>
+      <c r="D16" s="31">
+        <f t="shared" si="0"/>
         <v>0.70769230769230762</v>
       </c>
-      <c r="D16" s="14">
+      <c r="E16" s="6">
         <v>28</v>
       </c>
-      <c r="E16" s="13">
-        <f>1-D16/D17</f>
+      <c r="F16" s="30">
+        <f>E16/E17</f>
+        <v>0.28282828282828282</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
         <v>0.71717171717171713</v>
       </c>
-      <c r="F16" s="12">
+      <c r="H16" s="8">
         <v>29</v>
       </c>
-      <c r="G16" s="13">
-        <f>1-F16/F17</f>
+      <c r="I16" s="30">
+        <f>H16/H17</f>
+        <v>0.29591836734693877</v>
+      </c>
+      <c r="J16" s="31">
+        <f t="shared" si="2"/>
         <v>0.70408163265306123</v>
       </c>
-      <c r="H16" s="14">
+      <c r="K16" s="6">
         <v>27</v>
       </c>
-      <c r="I16" s="13">
-        <f>1-H16/H17</f>
+      <c r="L16" s="30">
+        <f>K16/K17</f>
+        <v>0.25471698113207547</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="3"/>
         <v>0.74528301886792447</v>
       </c>
-      <c r="J16" s="12">
+      <c r="N16" s="6">
         <v>28</v>
       </c>
-      <c r="K16" s="13">
-        <f>1-J16/J17</f>
+      <c r="O16" s="30">
+        <f>N16/N17</f>
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="4"/>
         <v>0.72277227722772275</v>
       </c>
-      <c r="L16" s="14">
+      <c r="Q16" s="8">
         <v>23</v>
       </c>
-      <c r="M16" s="13">
-        <f>1-L16/L17</f>
+      <c r="R16" s="30">
+        <f>Q16/Q17</f>
+        <v>0.28048780487804881</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="5"/>
         <v>0.71951219512195119</v>
       </c>
-      <c r="N16" s="12">
+      <c r="T16" s="8">
         <v>18</v>
       </c>
-      <c r="O16" s="13">
-        <f>1-N16/N17</f>
+      <c r="U16" s="30">
+        <f>T16/T17</f>
+        <v>0.24</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="6"/>
         <v>0.76</v>
       </c>
-      <c r="P16" s="14">
+      <c r="W16" s="8">
         <v>25</v>
       </c>
-      <c r="Q16" s="13">
-        <f>1-P16/P17</f>
+      <c r="X16" s="30">
+        <f>W16/W17</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="7"/>
         <v>0.73684210526315796</v>
       </c>
-      <c r="R16" s="14">
+      <c r="Z16" s="8">
         <v>27</v>
       </c>
-      <c r="S16" s="13">
-        <f>1-R16/R17</f>
+      <c r="AA16" s="30">
+        <f>Z16/Z17</f>
+        <v>0.25471698113207547</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" si="8"/>
         <v>0.74528301886792447</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10">
+    <row r="17" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="4">
         <v>65</v>
       </c>
-      <c r="C17" s="15">
-        <f>AVERAGE(C2:C16)</f>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9">
+        <f>AVERAGE(D2:D16)</f>
         <v>0.89435897435897449</v>
       </c>
-      <c r="D17" s="10">
+      <c r="E17" s="4">
         <f>16+83</f>
         <v>99</v>
       </c>
-      <c r="E17" s="11">
-        <f>AVERAGE(E2:E16)</f>
+      <c r="F17" s="13"/>
+      <c r="G17" s="5">
+        <f>AVERAGE(G2:G16)</f>
         <v>0.88215488215488214</v>
       </c>
-      <c r="F17" s="16">
+      <c r="H17" s="10">
         <f>85+13</f>
         <v>98</v>
       </c>
-      <c r="G17" s="15">
-        <f>AVERAGE(G2:G16)</f>
+      <c r="I17" s="13"/>
+      <c r="J17" s="9">
+        <f>AVERAGE(J2:J16)</f>
         <v>0.87551020408163238</v>
       </c>
-      <c r="H17" s="10">
+      <c r="K17" s="4">
         <f>88+18</f>
         <v>106</v>
       </c>
-      <c r="I17" s="11">
-        <f>AVERAGE(I2:I16)</f>
-        <v>0.88238993710691838</v>
-      </c>
-      <c r="J17" s="16">
+      <c r="L17" s="13"/>
+      <c r="M17" s="5">
+        <f>AVERAGE(M2:M16)</f>
+        <v>0.89308176100628944</v>
+      </c>
+      <c r="N17" s="10">
         <f>90+11</f>
         <v>101</v>
       </c>
-      <c r="K17" s="15">
-        <f>AVERAGE(K2:K16)</f>
+      <c r="O17" s="13"/>
+      <c r="P17" s="9">
+        <f>AVERAGE(P2:P16)</f>
         <v>0.87854785478547859</v>
       </c>
-      <c r="L17" s="10">
+      <c r="Q17" s="4">
         <f>13+69</f>
         <v>82</v>
       </c>
-      <c r="M17" s="11">
-        <f>AVERAGE(M2:M16)</f>
+      <c r="R17" s="13"/>
+      <c r="S17" s="5">
+        <f>AVERAGE(S2:S16)</f>
         <v>0.88292682926829258</v>
       </c>
-      <c r="N17" s="16">
+      <c r="T17" s="10">
         <f>13+62</f>
         <v>75</v>
       </c>
-      <c r="O17" s="15">
-        <f>AVERAGE(O2:O16)</f>
+      <c r="U17" s="13"/>
+      <c r="V17" s="9">
+        <f>AVERAGE(V2:V16)</f>
         <v>0.88533333333333342</v>
       </c>
-      <c r="P17" s="10">
+      <c r="W17" s="4">
         <f>16+79</f>
         <v>95</v>
       </c>
-      <c r="Q17" s="11">
-        <f>AVERAGE(Q2:Q16)</f>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="5">
+        <f>AVERAGE(Y2:Y16)</f>
         <v>0.87438596491228082</v>
       </c>
-      <c r="R17" s="16">
+      <c r="Z17" s="10">
         <f>88+18</f>
         <v>106</v>
       </c>
-      <c r="S17" s="11">
-        <f>AVERAGE(S2:S16)</f>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="5">
+        <f>AVERAGE(AB2:AB16)</f>
         <v>0.88238993710691838</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:28">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:28">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:28">
       <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/majorityBaseline.xlsx
+++ b/majorityBaseline.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="45" windowWidth="11940" windowHeight="7890"/>
+    <workbookView xWindow="8880" yWindow="45" windowWidth="11940" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="TED" sheetId="1" r:id="rId1"/>
+    <sheet name="RCV" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>de</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>en:</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>de:</t>
   </si>
 </sst>
 </file>
@@ -486,12 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -500,16 +512,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -518,10 +534,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -818,11 +836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,176 +850,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="25" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="11" t="s">
+      <c r="R1" s="27"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="27" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="11" t="s">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="12"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="28"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>10</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <f>B2/B17</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="19">
         <f>1-C2</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>16</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <f>E2/E17</f>
         <v>0.16161616161616163</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <f>1-F2</f>
         <v>0.83838383838383834</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="21">
         <v>13</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="16">
         <f>H2/H17</f>
         <v>0.1326530612244898</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="19">
         <f>1-I2</f>
         <v>0.86734693877551017</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="15">
         <v>1</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="16">
         <f>K2/K17</f>
         <v>9.433962264150943E-3</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="17">
         <f>1-L2</f>
         <v>0.99056603773584906</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>11</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="16">
         <f>N2/N17</f>
         <v>0.10891089108910891</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="17">
         <f>1-O2</f>
         <v>0.8910891089108911</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="21">
         <v>13</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="16">
         <f>Q2/Q17</f>
         <v>0.15853658536585366</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="17">
         <f>1-R2</f>
         <v>0.84146341463414631</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="21">
         <v>13</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="16">
         <f>T2/T17</f>
         <v>0.17333333333333334</v>
       </c>
-      <c r="V2" s="19">
+      <c r="V2" s="17">
         <f>1-U2</f>
         <v>0.82666666666666666</v>
       </c>
-      <c r="W2" s="24">
+      <c r="W2" s="21">
         <v>16</v>
       </c>
-      <c r="X2" s="18">
+      <c r="X2" s="16">
         <f>W2/W17</f>
         <v>0.16842105263157894</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Y2" s="17">
         <f>1-X2</f>
         <v>0.83157894736842108</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="Z2" s="21">
         <v>18</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AA2" s="16">
         <f>Z2/Z17</f>
         <v>0.16981132075471697</v>
       </c>
-      <c r="AB2" s="19">
+      <c r="AB2" s="17">
         <f>1-AA2</f>
         <v>0.83018867924528306</v>
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <f>B3/B17</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
         <f t="shared" ref="D3:D16" si="0">1-C3</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="E3" s="2">
         <v>9</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <f>E3/E17</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -1012,18 +1030,18 @@
       <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <f>H3/H17</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="20">
         <f t="shared" ref="J3:J16" si="2">1-I3</f>
         <v>0.9285714285714286</v>
       </c>
       <c r="K3" s="2">
         <v>12</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <f>K3/K17</f>
         <v>0.11320754716981132</v>
       </c>
@@ -1034,7 +1052,7 @@
       <c r="N3" s="2">
         <v>7</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="12">
         <f>N3/N17</f>
         <v>6.9306930693069313E-2</v>
       </c>
@@ -1045,7 +1063,7 @@
       <c r="Q3" s="1">
         <v>8</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="12">
         <f>Q3/Q17</f>
         <v>9.7560975609756101E-2</v>
       </c>
@@ -1056,7 +1074,7 @@
       <c r="T3" s="1">
         <v>7</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="12">
         <f>T3/T17</f>
         <v>9.3333333333333338E-2</v>
       </c>
@@ -1067,7 +1085,7 @@
       <c r="W3" s="1">
         <v>8</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="12">
         <f>W3/W17</f>
         <v>8.4210526315789472E-2</v>
       </c>
@@ -1078,7 +1096,7 @@
       <c r="Z3" s="1">
         <v>12</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AA3" s="12">
         <f>Z3/Z17</f>
         <v>0.11320754716981132</v>
       </c>
@@ -1088,24 +1106,24 @@
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <f>B4/B17</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <f>E4/E17</f>
         <v>5.0505050505050504E-2</v>
       </c>
@@ -1116,18 +1134,18 @@
       <c r="H4" s="1">
         <v>8</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <f>H4/H17</f>
         <v>8.1632653061224483E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="20">
         <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
       <c r="K4" s="2">
         <v>6</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <f>K4/K17</f>
         <v>5.6603773584905662E-2</v>
       </c>
@@ -1138,7 +1156,7 @@
       <c r="N4" s="2">
         <v>8</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="12">
         <f>N4/N17</f>
         <v>7.9207920792079209E-2</v>
       </c>
@@ -1149,7 +1167,7 @@
       <c r="Q4" s="1">
         <v>5</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="12">
         <f>Q4/Q17</f>
         <v>6.097560975609756E-2</v>
       </c>
@@ -1160,7 +1178,7 @@
       <c r="T4" s="1">
         <v>2</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="12">
         <f>T4/T17</f>
         <v>2.6666666666666668E-2</v>
       </c>
@@ -1171,7 +1189,7 @@
       <c r="W4" s="1">
         <v>6</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="12">
         <f>W4/W17</f>
         <v>6.3157894736842107E-2</v>
       </c>
@@ -1182,7 +1200,7 @@
       <c r="Z4" s="1">
         <v>6</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AA4" s="12">
         <f>Z4/Z17</f>
         <v>5.6603773584905662E-2</v>
       </c>
@@ -1192,24 +1210,24 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <f>B5/B17</f>
         <v>0.1076923076923077</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <f t="shared" si="0"/>
         <v>0.89230769230769225</v>
       </c>
       <c r="E5" s="2">
         <v>11</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <f>E5/E17</f>
         <v>0.1111111111111111</v>
       </c>
@@ -1220,18 +1238,18 @@
       <c r="H5" s="1">
         <v>15</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <f>H5/H17</f>
         <v>0.15306122448979592</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <f t="shared" si="2"/>
         <v>0.84693877551020402</v>
       </c>
       <c r="K5" s="2">
         <v>11</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <f>K5/K17</f>
         <v>0.10377358490566038</v>
       </c>
@@ -1242,7 +1260,7 @@
       <c r="N5" s="2">
         <v>11</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="12">
         <f>N5/N17</f>
         <v>0.10891089108910891</v>
       </c>
@@ -1253,7 +1271,7 @@
       <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="12">
         <f>Q5/Q17</f>
         <v>0.12195121951219512</v>
       </c>
@@ -1264,7 +1282,7 @@
       <c r="T5" s="1">
         <v>7</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="12">
         <f>T5/T17</f>
         <v>9.3333333333333338E-2</v>
       </c>
@@ -1275,7 +1293,7 @@
       <c r="W5" s="1">
         <v>11</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="12">
         <f>W5/W17</f>
         <v>0.11578947368421053</v>
       </c>
@@ -1286,7 +1304,7 @@
       <c r="Z5" s="1">
         <v>11</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA5" s="12">
         <f>Z5/Z17</f>
         <v>0.10377358490566038</v>
       </c>
@@ -1296,24 +1314,24 @@
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <f>B6/B17</f>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>0.96923076923076923</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <f>E6/E17</f>
         <v>4.0404040404040407E-2</v>
       </c>
@@ -1324,18 +1342,18 @@
       <c r="H6" s="1">
         <v>6</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f>H6/H17</f>
         <v>6.1224489795918366E-2</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
       <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <f>K6/K17</f>
         <v>3.7735849056603772E-2</v>
       </c>
@@ -1346,7 +1364,7 @@
       <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <f>N6/N17</f>
         <v>2.9702970297029702E-2</v>
       </c>
@@ -1357,7 +1375,7 @@
       <c r="Q6" s="1">
         <v>5</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="12">
         <f>Q6/Q17</f>
         <v>6.097560975609756E-2</v>
       </c>
@@ -1368,7 +1386,7 @@
       <c r="T6" s="1">
         <v>7</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="12">
         <f>T6/T17</f>
         <v>9.3333333333333338E-2</v>
       </c>
@@ -1379,7 +1397,7 @@
       <c r="W6" s="1">
         <v>4</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="12">
         <f>W6/W17</f>
         <v>4.2105263157894736E-2</v>
       </c>
@@ -1390,7 +1408,7 @@
       <c r="Z6" s="1">
         <v>4</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA6" s="12">
         <f>Z6/Z17</f>
         <v>3.7735849056603772E-2</v>
       </c>
@@ -1400,24 +1418,24 @@
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <f>B7/B17</f>
         <v>0.1076923076923077</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <f t="shared" si="0"/>
         <v>0.89230769230769225</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <f>E7/E17</f>
         <v>0.15151515151515152</v>
       </c>
@@ -1428,18 +1446,18 @@
       <c r="H7" s="1">
         <v>16</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f>H7/H17</f>
         <v>0.16326530612244897</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <f t="shared" si="2"/>
         <v>0.83673469387755106</v>
       </c>
       <c r="K7" s="2">
         <v>17</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <f>K7/K17</f>
         <v>0.16037735849056603</v>
       </c>
@@ -1450,7 +1468,7 @@
       <c r="N7" s="2">
         <v>17</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <f>N7/N17</f>
         <v>0.16831683168316833</v>
       </c>
@@ -1461,7 +1479,7 @@
       <c r="Q7" s="1">
         <v>11</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="12">
         <f>Q7/Q17</f>
         <v>0.13414634146341464</v>
       </c>
@@ -1472,7 +1490,7 @@
       <c r="T7" s="1">
         <v>10</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="12">
         <f>T7/T17</f>
         <v>0.13333333333333333</v>
       </c>
@@ -1483,7 +1501,7 @@
       <c r="W7" s="1">
         <v>18</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="12">
         <f>W7/W17</f>
         <v>0.18947368421052632</v>
       </c>
@@ -1494,7 +1512,7 @@
       <c r="Z7" s="1">
         <v>17</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA7" s="12">
         <f>Z7/Z17</f>
         <v>0.16037735849056603</v>
       </c>
@@ -1504,24 +1522,24 @@
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f>B8/B17</f>
         <v>0.13846153846153847</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>0.86153846153846159</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <f>E8/E17</f>
         <v>0.13131313131313133</v>
       </c>
@@ -1532,18 +1550,18 @@
       <c r="H8" s="1">
         <v>11</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f>H8/H17</f>
         <v>0.11224489795918367</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <f t="shared" si="2"/>
         <v>0.88775510204081631</v>
       </c>
       <c r="K8" s="2">
         <v>14</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <f>K8/K17</f>
         <v>0.13207547169811321</v>
       </c>
@@ -1554,7 +1572,7 @@
       <c r="N8" s="2">
         <v>12</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="12">
         <f>N8/N17</f>
         <v>0.11881188118811881</v>
       </c>
@@ -1565,7 +1583,7 @@
       <c r="Q8" s="1">
         <v>6</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="12">
         <f>Q8/Q17</f>
         <v>7.3170731707317069E-2</v>
       </c>
@@ -1576,7 +1594,7 @@
       <c r="T8" s="1">
         <v>12</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="12">
         <f>T8/T17</f>
         <v>0.16</v>
       </c>
@@ -1587,7 +1605,7 @@
       <c r="W8" s="1">
         <v>11</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="12">
         <f>W8/W17</f>
         <v>0.11578947368421053</v>
       </c>
@@ -1598,7 +1616,7 @@
       <c r="Z8" s="1">
         <v>14</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="12">
         <f>Z8/Z17</f>
         <v>0.13207547169811321</v>
       </c>
@@ -1608,24 +1626,24 @@
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <f>B9/B17</f>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>0.96923076923076923</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <f>E9/E17</f>
         <v>4.0404040404040407E-2</v>
       </c>
@@ -1636,18 +1654,18 @@
       <c r="H9" s="1">
         <v>6</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <f>H9/H17</f>
         <v>6.1224489795918366E-2</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
       <c r="K9" s="2">
         <v>7</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <f>K9/K17</f>
         <v>6.6037735849056603E-2</v>
       </c>
@@ -1658,7 +1676,7 @@
       <c r="N9" s="2">
         <v>6</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="12">
         <f>N9/N17</f>
         <v>5.9405940594059403E-2</v>
       </c>
@@ -1669,7 +1687,7 @@
       <c r="Q9" s="1">
         <v>4</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="12">
         <f>Q9/Q17</f>
         <v>4.878048780487805E-2</v>
       </c>
@@ -1680,7 +1698,7 @@
       <c r="T9" s="1">
         <v>2</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U9" s="12">
         <f>T9/T17</f>
         <v>2.6666666666666668E-2</v>
       </c>
@@ -1691,7 +1709,7 @@
       <c r="W9" s="1">
         <v>6</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="12">
         <f>W9/W17</f>
         <v>6.3157894736842107E-2</v>
       </c>
@@ -1702,7 +1720,7 @@
       <c r="Z9" s="1">
         <v>7</v>
       </c>
-      <c r="AA9" s="14">
+      <c r="AA9" s="12">
         <f>Z9/Z17</f>
         <v>6.6037735849056603E-2</v>
       </c>
@@ -1712,24 +1730,24 @@
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f>B10/B17</f>
         <v>6.1538461538461542E-2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>0.93846153846153846</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <f>E10/E17</f>
         <v>6.0606060606060608E-2</v>
       </c>
@@ -1740,18 +1758,18 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f>H10/H17</f>
         <v>8.1632653061224483E-2</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="20">
         <f t="shared" si="2"/>
         <v>0.91836734693877553</v>
       </c>
       <c r="K10" s="2">
         <v>4</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="12">
         <f>K10/K17</f>
         <v>3.7735849056603772E-2</v>
       </c>
@@ -1762,7 +1780,7 @@
       <c r="N10" s="2">
         <v>8</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <f>N10/N17</f>
         <v>7.9207920792079209E-2</v>
       </c>
@@ -1773,7 +1791,7 @@
       <c r="Q10" s="1">
         <v>7</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="12">
         <f>Q10/Q17</f>
         <v>8.5365853658536592E-2</v>
       </c>
@@ -1784,7 +1802,7 @@
       <c r="T10" s="1">
         <v>8</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="12">
         <f>T10/T17</f>
         <v>0.10666666666666667</v>
       </c>
@@ -1795,7 +1813,7 @@
       <c r="W10" s="1">
         <v>4</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="12">
         <f>W10/W17</f>
         <v>4.2105263157894736E-2</v>
       </c>
@@ -1806,7 +1824,7 @@
       <c r="Z10" s="1">
         <v>4</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AA10" s="12">
         <f>Z10/Z17</f>
         <v>3.7735849056603772E-2</v>
       </c>
@@ -1816,24 +1834,24 @@
       </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <f>B11/B17</f>
         <v>0.1076923076923077</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>0.89230769230769225</v>
       </c>
       <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <f>E11/E17</f>
         <v>8.0808080808080815E-2</v>
       </c>
@@ -1844,18 +1862,18 @@
       <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <f>H11/H17</f>
         <v>9.1836734693877556E-2</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="20">
         <f t="shared" si="2"/>
         <v>0.90816326530612246</v>
       </c>
       <c r="K11" s="2">
         <v>7</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <f>K11/K17</f>
         <v>6.6037735849056603E-2</v>
       </c>
@@ -1866,7 +1884,7 @@
       <c r="N11" s="2">
         <v>7</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="12">
         <f>N11/N17</f>
         <v>6.9306930693069313E-2</v>
       </c>
@@ -1877,7 +1895,7 @@
       <c r="Q11" s="1">
         <v>9</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="12">
         <f>Q11/Q17</f>
         <v>0.10975609756097561</v>
       </c>
@@ -1888,7 +1906,7 @@
       <c r="T11" s="1">
         <v>9</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="12">
         <f>T11/T17</f>
         <v>0.12</v>
       </c>
@@ -1899,7 +1917,7 @@
       <c r="W11" s="1">
         <v>10</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="12">
         <f>W11/W17</f>
         <v>0.10526315789473684</v>
       </c>
@@ -1910,7 +1928,7 @@
       <c r="Z11" s="1">
         <v>7</v>
       </c>
-      <c r="AA11" s="14">
+      <c r="AA11" s="12">
         <f>Z11/Z17</f>
         <v>6.6037735849056603E-2</v>
       </c>
@@ -1920,24 +1938,24 @@
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <f>B12/B17</f>
         <v>0.12307692307692308</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>0.87692307692307692</v>
       </c>
       <c r="E12" s="2">
         <v>22</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <f>E12/E17</f>
         <v>0.22222222222222221</v>
       </c>
@@ -1948,18 +1966,18 @@
       <c r="H12" s="1">
         <v>18</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <f>H12/H17</f>
         <v>0.18367346938775511</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <f t="shared" si="2"/>
         <v>0.81632653061224492</v>
       </c>
       <c r="K12" s="2">
         <v>22</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="12">
         <f>K12/K17</f>
         <v>0.20754716981132076</v>
       </c>
@@ -1970,7 +1988,7 @@
       <c r="N12" s="2">
         <v>22</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="12">
         <f>N12/N17</f>
         <v>0.21782178217821782</v>
       </c>
@@ -1981,7 +1999,7 @@
       <c r="Q12" s="1">
         <v>14</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="12">
         <f>Q12/Q17</f>
         <v>0.17073170731707318</v>
       </c>
@@ -1992,7 +2010,7 @@
       <c r="T12" s="1">
         <v>14</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="12">
         <f>T12/T17</f>
         <v>0.18666666666666668</v>
       </c>
@@ -2003,7 +2021,7 @@
       <c r="W12" s="1">
         <v>22</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="12">
         <f>W12/W17</f>
         <v>0.23157894736842105</v>
       </c>
@@ -2014,7 +2032,7 @@
       <c r="Z12" s="1">
         <v>22</v>
       </c>
-      <c r="AA12" s="14">
+      <c r="AA12" s="12">
         <f>Z12/Z17</f>
         <v>0.20754716981132076</v>
       </c>
@@ -2024,24 +2042,24 @@
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f>B13/B17</f>
         <v>9.2307692307692313E-2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>0.90769230769230769</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f>E13/E17</f>
         <v>0.10101010101010101</v>
       </c>
@@ -2052,18 +2070,18 @@
       <c r="H13" s="1">
         <v>12</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <f>H13/H17</f>
         <v>0.12244897959183673</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f t="shared" si="2"/>
         <v>0.87755102040816324</v>
       </c>
       <c r="K13" s="2">
         <v>12</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <f>K13/K17</f>
         <v>0.11320754716981132</v>
       </c>
@@ -2074,7 +2092,7 @@
       <c r="N13" s="2">
         <v>12</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="12">
         <f>N13/N17</f>
         <v>0.11881188118811881</v>
       </c>
@@ -2085,7 +2103,7 @@
       <c r="Q13" s="1">
         <v>7</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <f>Q13/Q17</f>
         <v>8.5365853658536592E-2</v>
       </c>
@@ -2096,7 +2114,7 @@
       <c r="T13" s="1">
         <v>5</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="12">
         <f>T13/T17</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2107,7 +2125,7 @@
       <c r="W13" s="1">
         <v>10</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="12">
         <f>W13/W17</f>
         <v>0.10526315789473684</v>
       </c>
@@ -2118,7 +2136,7 @@
       <c r="Z13" s="1">
         <v>12</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="12">
         <f>Z13/Z17</f>
         <v>0.11320754716981132</v>
       </c>
@@ -2128,24 +2146,24 @@
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <f>B14/B17</f>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>0.98461538461538467</v>
       </c>
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <f>E14/E17</f>
         <v>8.0808080808080815E-2</v>
       </c>
@@ -2156,18 +2174,18 @@
       <c r="H14" s="1">
         <v>6</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f>H14/H17</f>
         <v>6.1224489795918366E-2</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="20">
         <f t="shared" si="2"/>
         <v>0.93877551020408168</v>
       </c>
       <c r="K14" s="2">
         <v>7</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <f>K14/K17</f>
         <v>6.6037735849056603E-2</v>
       </c>
@@ -2178,7 +2196,7 @@
       <c r="N14" s="2">
         <v>8</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="12">
         <f>N14/N17</f>
         <v>7.9207920792079209E-2</v>
       </c>
@@ -2189,7 +2207,7 @@
       <c r="Q14" s="1">
         <v>3</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="12">
         <f>Q14/Q17</f>
         <v>3.6585365853658534E-2</v>
       </c>
@@ -2200,7 +2218,7 @@
       <c r="T14" s="1">
         <v>5</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="12">
         <f>T14/T17</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2211,7 +2229,7 @@
       <c r="W14" s="1">
         <v>6</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="12">
         <f>W14/W17</f>
         <v>6.3157894736842107E-2</v>
       </c>
@@ -2222,7 +2240,7 @@
       <c r="Z14" s="1">
         <v>7</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="12">
         <f>Z14/Z17</f>
         <v>6.6037735849056603E-2</v>
       </c>
@@ -2232,24 +2250,24 @@
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <f>B15/B17</f>
         <v>0.16923076923076924</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>0.8307692307692307</v>
       </c>
       <c r="E15" s="2">
         <v>16</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <f>E15/E17</f>
         <v>0.16161616161616163</v>
       </c>
@@ -2260,18 +2278,18 @@
       <c r="H15" s="1">
         <v>19</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <f>H15/H17</f>
         <v>0.19387755102040816</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="20">
         <f t="shared" si="2"/>
         <v>0.80612244897959184</v>
       </c>
       <c r="K15" s="2">
         <v>19</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="12">
         <f>K15/K17</f>
         <v>0.17924528301886791</v>
       </c>
@@ -2282,7 +2300,7 @@
       <c r="N15" s="2">
         <v>24</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="12">
         <f>N15/N17</f>
         <v>0.23762376237623761</v>
       </c>
@@ -2293,7 +2311,7 @@
       <c r="Q15" s="1">
         <v>19</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="12">
         <f>Q15/Q17</f>
         <v>0.23170731707317074</v>
       </c>
@@ -2304,7 +2322,7 @@
       <c r="T15" s="1">
         <v>10</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="12">
         <f>T15/T17</f>
         <v>0.13333333333333333</v>
       </c>
@@ -2315,7 +2333,7 @@
       <c r="W15" s="1">
         <v>22</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="12">
         <f>W15/W17</f>
         <v>0.23157894736842105</v>
       </c>
@@ -2326,7 +2344,7 @@
       <c r="Z15" s="1">
         <v>19</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="AA15" s="12">
         <f>Z15/Z17</f>
         <v>0.17924528301886791</v>
       </c>
@@ -2336,24 +2354,24 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="6">
         <v>19</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="23">
         <f>B16/B17</f>
         <v>0.29230769230769232</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="24">
         <f t="shared" si="0"/>
         <v>0.70769230769230762</v>
       </c>
       <c r="E16" s="6">
         <v>28</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="23">
         <f>E16/E17</f>
         <v>0.28282828282828282</v>
       </c>
@@ -2364,18 +2382,18 @@
       <c r="H16" s="8">
         <v>29</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="23">
         <f>H16/H17</f>
         <v>0.29591836734693877</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="24">
         <f t="shared" si="2"/>
         <v>0.70408163265306123</v>
       </c>
       <c r="K16" s="6">
         <v>27</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="23">
         <f>K16/K17</f>
         <v>0.25471698113207547</v>
       </c>
@@ -2386,7 +2404,7 @@
       <c r="N16" s="6">
         <v>28</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="23">
         <f>N16/N17</f>
         <v>0.27722772277227725</v>
       </c>
@@ -2397,7 +2415,7 @@
       <c r="Q16" s="8">
         <v>23</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="23">
         <f>Q16/Q17</f>
         <v>0.28048780487804881</v>
       </c>
@@ -2408,7 +2426,7 @@
       <c r="T16" s="8">
         <v>18</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="23">
         <f>T16/T17</f>
         <v>0.24</v>
       </c>
@@ -2419,7 +2437,7 @@
       <c r="W16" s="8">
         <v>25</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="23">
         <f>W16/W17</f>
         <v>0.26315789473684209</v>
       </c>
@@ -2430,7 +2448,7 @@
       <c r="Z16" s="8">
         <v>27</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA16" s="23">
         <f>Z16/Z17</f>
         <v>0.25471698113207547</v>
       </c>
@@ -2440,11 +2458,11 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4">
         <v>65</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="9">
         <f>AVERAGE(D2:D16)</f>
         <v>0.89435897435897449</v>
@@ -2453,7 +2471,7 @@
         <f>16+83</f>
         <v>99</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5">
         <f>AVERAGE(G2:G16)</f>
         <v>0.88215488215488214</v>
@@ -2462,7 +2480,7 @@
         <f>85+13</f>
         <v>98</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="9">
         <f>AVERAGE(J2:J16)</f>
         <v>0.87551020408163238</v>
@@ -2471,7 +2489,7 @@
         <f>88+18</f>
         <v>106</v>
       </c>
-      <c r="L17" s="13"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="5">
         <f>AVERAGE(M2:M16)</f>
         <v>0.89308176100628944</v>
@@ -2480,7 +2498,7 @@
         <f>90+11</f>
         <v>101</v>
       </c>
-      <c r="O17" s="13"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="9">
         <f>AVERAGE(P2:P16)</f>
         <v>0.87854785478547859</v>
@@ -2489,7 +2507,7 @@
         <f>13+69</f>
         <v>82</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="5">
         <f>AVERAGE(S2:S16)</f>
         <v>0.88292682926829258</v>
@@ -2498,7 +2516,7 @@
         <f>13+62</f>
         <v>75</v>
       </c>
-      <c r="U17" s="13"/>
+      <c r="U17" s="11"/>
       <c r="V17" s="9">
         <f>AVERAGE(V2:V16)</f>
         <v>0.88533333333333342</v>
@@ -2507,7 +2525,7 @@
         <f>16+79</f>
         <v>95</v>
       </c>
-      <c r="X17" s="13"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="5">
         <f>AVERAGE(Y2:Y16)</f>
         <v>0.87438596491228082</v>
@@ -2516,7 +2534,7 @@
         <f>88+18</f>
         <v>106</v>
       </c>
-      <c r="AA17" s="13"/>
+      <c r="AA17" s="11"/>
       <c r="AB17" s="5">
         <f>AVERAGE(AB2:AB16)</f>
         <v>0.88238993710691838</v>
@@ -2555,12 +2573,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <f>B3/B7</f>
+        <v>1.503910166432725E-2</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <f>D3/D7</f>
+        <v>5.8023209283713482E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>2332</v>
+      </c>
+      <c r="C4">
+        <f>B4/B7</f>
+        <v>0.46761580108281531</v>
+      </c>
+      <c r="D4">
+        <v>2341</v>
+      </c>
+      <c r="E4">
+        <f>D4/D7</f>
+        <v>0.46838735494197681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1650</v>
+      </c>
+      <c r="C5">
+        <f>B5/B7</f>
+        <v>0.33086023661519953</v>
+      </c>
+      <c r="D5">
+        <v>2031</v>
+      </c>
+      <c r="E5">
+        <f>D5/D7</f>
+        <v>0.40636254501800723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>930</v>
+      </c>
+      <c r="C6">
+        <f>B6/B7</f>
+        <v>0.1864848606376579</v>
+      </c>
+      <c r="D6">
+        <v>597</v>
+      </c>
+      <c r="E6">
+        <f>D6/D7</f>
+        <v>0.11944777911164466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7">
+        <f>SUM(B3:B6)</f>
+        <v>4987</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D3:D6)</f>
+        <v>4998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
